--- a/word2excel/RE方法/backup/选择题/dxdx.xlsx
+++ b/word2excel/RE方法/backup/选择题/dxdx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13620"/>
+    <workbookView windowWidth="22365" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,7 @@
     <t>选项4</t>
   </si>
   <si>
-    <t>&lt;div&gt;
-        &lt;img src="https://stapi.seniorfd.com/uploads/admin/file/1/1/20221229/f38334cb7b54d20c4fa7ea1bab2ee8a1.webp" alt="" width="900",height="383"&gt;
-        &lt;p&gt;这是测试导入第一次鸦片战争后，资本一帝国主义列强逼迫中国签订了一系列不平等条约。随着外国资本主义的入侵，中国的社会性质开始发生质的变化。中国逐步成为半殖民地半封建国家。随着社会主要矛盾的变化，中国逐渐开始了反帝反封建的资产阶级民主革命。正因为如此，鸦片战争成为中国近代史的起点。选项D正确。民族意识的普遍觉醒是在甲午战争之后，选项B错误。选项A、选项C也不符合题意。&lt;/p&gt;
+    <t>&lt;div&gt;       &lt;p&gt;&lt;/p&gt;
     &lt;/div&gt;</t>
   </si>
 </sst>
@@ -1171,22 +1169,22 @@
   <sheetPr/>
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="10.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="18.1111111111111" customWidth="1"/>
-    <col min="4" max="5" width="14.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="11.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="15.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="5" width="14.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="11.5583333333333" customWidth="1"/>
     <col min="7" max="7" width="9.33333333333333" customWidth="1"/>
-    <col min="8" max="8" width="13.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="13.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="72" spans="1:24">
+    <row r="1" s="1" customFormat="1" ht="67.5" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="409.5" spans="1:24">
+    <row r="2" ht="54" spans="1:24">
       <c r="A2">
         <v>1</v>
       </c>
